--- a/wcsm8seleniumproject/datafiles/ActiTimeTestData.xlsx
+++ b/wcsm8seleniumproject/datafiles/ActiTimeTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16485" windowHeight="6135" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14025" windowHeight="6135" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ValidData" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="InvalidData" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:N18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -545,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -589,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/wcsm8seleniumproject/datafiles/ActiTimeTestData.xlsx
+++ b/wcsm8seleniumproject/datafiles/ActiTimeTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14025" windowHeight="6135" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16485" windowHeight="6135"/>
   </bookViews>
   <sheets>
     <sheet name="ValidData" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="InvalidData" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N18"/>
+  <oleSize ref="A1:P18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -509,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
